--- a/Facebook/facebook_mat.xlsx
+++ b/Facebook/facebook_mat.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
